--- a/device_route.xlsx
+++ b/device_route.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CTF_Python\Juniper_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90220311-77AD-440A-8F8F-41221F58D85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451BDA2C-02FD-4221-97D2-34EE9D6102B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{CB7DB331-5E91-114F-86C6-CBCB61B2D6F3}"/>
+    <workbookView xWindow="4695" yWindow="4050" windowWidth="21600" windowHeight="12855" xr2:uid="{CB7DB331-5E91-114F-86C6-CBCB61B2D6F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,18 +90,6 @@
     </r>
   </si>
   <si>
-    <t>crtech_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crtech_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hk158</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MX304</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nocnoc1123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>root</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,6 +137,16 @@
   <si>
     <t xml:space="preserve">x.x.x.x </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line2</t>
+  </si>
+  <si>
+    <t>line3</t>
   </si>
 </sst>
 </file>
@@ -552,7 +546,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -597,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -609,16 +603,16 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -626,10 +620,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -638,16 +632,16 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -655,10 +649,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -667,16 +661,16 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -684,10 +678,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -696,16 +690,16 @@
         <v>50002</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -713,10 +707,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -725,16 +719,16 @@
         <v>50002</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -742,10 +736,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -754,16 +748,16 @@
         <v>50002</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -771,10 +765,10 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -783,20 +777,21 @@
         <v>50002</v>
       </c>
       <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>